--- a/biology/Botanique/Epiphyllum/Epiphyllum.xlsx
+++ b/biology/Botanique/Epiphyllum/Epiphyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyllum est un genre botanique d'espèces de plantes épiphytes faisant partie de la famille des Cactaceae, les cactus, originaire d'Amérique centrale. 
 Il est aussi appelé Epicactus (Epiphyllum hybride) ou Cactus orchidée (Epiphyllum crenatum) ou Cactus à feuilles, bien que ce dernier appartienne au genre Pereskia. Le cactus de Noël (Schlumbergera) est parfois appelé, à tort, Epiphyllum.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les « feuilles », qui sont en réalité les articles (cladode/phylloclade) de l'équivalent d'un cactus (voir Morphologie des Cactacées) sont larges et très plates, ont de un à cinq cm de largeur, de trois à cinq mm d'épaisseur, et ont généralement des bords lobés. 
 Les fleurs sont larges, d'un diamètre de huit à seize cm, et ont de nombreux pétales, de couleur blanche à rouge. 
 Le fruit est comestible, très proche du fruit du pitaya appartenant au genre parent Hylocereus, bien que moins gros, et long de trois à quatre cm seulement. 
-Le fruit produit de petites graines dont on a montré qu'elles sont capables de viviparité ; c'est-à-dire que la graine peut germer très précocement, alors qu'elle est encore dans le fruit accroché à la plante-mère. C'est un cas extrême de semences dites récalcitrante qu'on connaissait déjà chez le palétuvier, et qu'on a ensuite également démontré chez une autre cactée épiphyte (également cultivées ; Rhipsalis pilocarpa Loefgren). On a montré en laboratoire que ces graines s'avèrent viables[1].
+Le fruit produit de petites graines dont on a montré qu'elles sont capables de viviparité ; c'est-à-dire que la graine peut germer très précocement, alors qu'elle est encore dans le fruit accroché à la plante-mère. C'est un cas extrême de semences dites récalcitrante qu'on connaissait déjà chez le palétuvier, et qu'on a ensuite également démontré chez une autre cactée épiphyte (également cultivées ; Rhipsalis pilocarpa Loefgren). On a montré en laboratoire que ces graines s'avèrent viables.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyllum vient du grec ancien: ἐπἰ sur et φύλλον feuille, fleur, plante, et signifie « sur la feuille ».
 L'emploi du mot Epiphyllum comporte une erreur botanique puisque les tiges plates qui portent les fleurs ne sont pas des feuilles mais des tiges aplaties (cladode/phylloclade).
@@ -578,9 +594,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (27 août 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (27 août 2015) :
 Epiphyllum anguliger (Lem.) G. Don ex Loudon
 Epiphyllum baueri Dorsch
 Epiphyllum cartagense (F.A.C. Weber) Britton &amp; Rose
@@ -593,7 +611,7 @@
 Epiphyllum phyllanthus (L.) Haw.
 Epiphyllum pumilum Britton &amp; Rose
 Epiphyllum thomasianum (K. Schum.) Britton &amp; Rose
-Selon The Plant List            (27 août 2015)[3] :
+Selon The Plant List            (27 août 2015) :
 Epiphyllum anguliger (Lem.) G.Don
 Epiphyllum baueri Dorsch
 Epiphyllum cartagense (F.A.C.Weber) Britton &amp; Rose
@@ -609,7 +627,7 @@
 Epiphyllum pumilum Britton &amp; Rose
 Epiphyllum thomasianum (K.Schum.) Britton &amp; Rose
 Epiphyllum trimetrale Croizat
-Selon Tropicos                                           (27 août 2015)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 août 2015) (Attention liste brute contenant possiblement des synonymes) :
 Epiphyllum ackermannii Haw.
 Epiphyllum acuminatum K. Schum.
 Epiphyllum alatum (Sw.) Haw.
@@ -669,7 +687,7 @@
 Epiphyllum trimetrale Croizat
 Epiphyllum truncatum Haw.
 Epiphyllum × buckleyi T. Moore
-Selon World Register of Marine Species                               (27 août 2015)[5] :
+Selon World Register of Marine Species                               (27 août 2015) :
 Epiphyllum soliforme (Fauré-Frémiet, 1908) Lin, Song &amp; Warren, 2005</t>
         </is>
       </c>
@@ -698,7 +716,9 @@
           <t>Les Epiphyllum hybrides</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Epiphyllum sont des plantes de maison très appréciées, dont on produit de nombreux hybrides et cultivars. Ces hybrides portent également le nom d'Epiphyllum.
 Epiphyllum crenatum, importée du Honduras en 1839 est la principale espèce d’Epiphyllum qui servira aux hybridations pour l'usage ornemental. Elle est essentiellement hybridée avec Disocactus phyllanthoides et Heliocereus speciosus (Disocactus speciosus).
@@ -730,7 +750,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyllocactus Link
 Phyllocereus Miq.
